--- a/Flughafen (2).xlsx
+++ b/Flughafen (2).xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Informatiksystheme\Projekt_Datenbanken\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Ifsy\Praktikum_Datenbanken\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{81E01CC8-2C75-46C0-A496-DD4CA710BF92}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48F48626-8DF2-41C0-916D-EB7093881F85}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="570" windowWidth="28800" windowHeight="11655" xr2:uid="{854A1E1C-1DAB-4717-AF4C-8C81AEB28F79}"/>
   </bookViews>
@@ -828,18 +828,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -855,7 +849,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -871,7 +865,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -1190,8 +1183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{184A6E37-1F20-456E-ACD0-33B7AB6994AF}">
   <dimension ref="A2:X86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N58" sqref="N58"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2114,7 +2107,7 @@
       <c r="E27">
         <v>4</v>
       </c>
-      <c r="K27" s="10"/>
+      <c r="K27" s="9"/>
       <c r="P27" s="6"/>
       <c r="Q27" s="6"/>
       <c r="T27" s="4">
@@ -3415,7 +3408,9 @@
       <c r="F62">
         <v>8</v>
       </c>
-      <c r="G62" s="9"/>
+      <c r="G62" s="9">
+        <v>22</v>
+      </c>
       <c r="H62" s="2" t="s">
         <v>239</v>
       </c>
@@ -3451,7 +3446,9 @@
       <c r="F63">
         <v>9</v>
       </c>
-      <c r="G63" s="9"/>
+      <c r="G63" s="9">
+        <v>7</v>
+      </c>
       <c r="H63" s="2" t="s">
         <v>239</v>
       </c>
@@ -3487,7 +3484,9 @@
       <c r="F64">
         <v>10</v>
       </c>
-      <c r="G64" s="9"/>
+      <c r="G64" s="9">
+        <v>8</v>
+      </c>
       <c r="H64" s="2" t="s">
         <v>240</v>
       </c>
@@ -3523,7 +3522,9 @@
       <c r="F65">
         <v>11</v>
       </c>
-      <c r="G65" s="9"/>
+      <c r="G65" s="9">
+        <v>24</v>
+      </c>
       <c r="H65" s="2" t="s">
         <v>240</v>
       </c>
@@ -3559,7 +3560,9 @@
       <c r="F66">
         <v>4</v>
       </c>
-      <c r="G66" s="9"/>
+      <c r="G66" s="9">
+        <v>5</v>
+      </c>
       <c r="H66" s="2" t="s">
         <v>243</v>
       </c>
@@ -3595,7 +3598,9 @@
       <c r="F67">
         <v>5</v>
       </c>
-      <c r="G67" s="9"/>
+      <c r="G67" s="9">
+        <v>23</v>
+      </c>
       <c r="H67" s="2" t="s">
         <v>243</v>
       </c>
@@ -3631,7 +3636,9 @@
       <c r="F68">
         <v>10</v>
       </c>
-      <c r="G68" s="9"/>
+      <c r="G68" s="9">
+        <v>26</v>
+      </c>
       <c r="H68" s="2" t="s">
         <v>244</v>
       </c>
@@ -3661,13 +3668,15 @@
       <c r="D69" t="s">
         <v>242</v>
       </c>
-      <c r="E69" s="10">
+      <c r="E69" s="9">
         <v>5</v>
       </c>
       <c r="F69">
         <v>11</v>
       </c>
-      <c r="G69" s="9"/>
+      <c r="G69" s="9">
+        <v>2</v>
+      </c>
       <c r="H69" s="2" t="s">
         <v>244</v>
       </c>
@@ -3703,7 +3712,9 @@
       <c r="F70">
         <v>9</v>
       </c>
-      <c r="G70" s="9"/>
+      <c r="G70" s="9">
+        <v>25</v>
+      </c>
       <c r="H70" s="2" t="s">
         <v>247</v>
       </c>
@@ -3739,7 +3750,9 @@
       <c r="F71">
         <v>4</v>
       </c>
-      <c r="G71" s="9"/>
+      <c r="G71" s="9">
+        <v>15</v>
+      </c>
       <c r="H71" s="2" t="s">
         <v>247</v>
       </c>
@@ -3775,7 +3788,9 @@
       <c r="F72">
         <v>8</v>
       </c>
-      <c r="G72" s="9"/>
+      <c r="G72" s="9">
+        <v>21</v>
+      </c>
       <c r="H72" s="2" t="s">
         <v>249</v>
       </c>
@@ -3811,7 +3826,9 @@
       <c r="F73">
         <v>9</v>
       </c>
-      <c r="G73" s="9"/>
+      <c r="G73" s="9">
+        <v>3</v>
+      </c>
       <c r="H73" s="2" t="s">
         <v>249</v>
       </c>
